--- a/tests/Data/Disks/Local/import-users-with-different-heading-row.xlsx
+++ b/tests/Data/Disks/Local/import-users-with-different-heading-row.xlsx
@@ -1,16 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="26405"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10411"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/patrickbrouwers/Sites/Laravel-Excel/tests/Data/Disks/Local/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{289729F9-BC65-5549-8857-99494901B4C2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="27640" yWindow="9500" windowWidth="25600" windowHeight="15620"/>
+    <workbookView xWindow="25600" yWindow="9500" windowWidth="25600" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -42,7 +57,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -83,10 +98,18 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -376,20 +399,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A4:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -397,7 +420,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -405,7 +428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -416,8 +439,8 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <hyperlinks>
-    <hyperlink ref="B5" r:id="rId1"/>
-    <hyperlink ref="B6" r:id="rId2"/>
+    <hyperlink ref="B5" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B6" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
